--- a/DataRaw/2025-6-17 Adjudication Jared added Cxs - NTM_LD_Radiology 4.7.2025.xlsx
+++ b/DataRaw/2025-6-17 Adjudication Jared added Cxs - NTM_LD_Radiology 4.7.2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c2d16a148962151/Desktop/BIOSTAT/Thesis/Thesis/DataRaw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddyj\Documents\Myco Division\Mycobacterial Research &amp; Papers\Ed Chan NTM CT Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA7DE8D-2B50-4CBB-992A-51DB7F625C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="336" yWindow="3894" windowWidth="8196" windowHeight="528" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="0" windowWidth="25065" windowHeight="15030" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consensus" sheetId="3" r:id="rId1"/>
@@ -4227,7 +4227,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4248,6 +4248,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="154" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="155">
     <cellStyle name="Bad" xfId="154" builtinId="27"/>
@@ -4592,7 +4593,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4668,7 +4669,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4744,7 +4745,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4815,7 +4816,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5101,16 +5102,16 @@
       <selection pane="bottomRight" activeCell="A162" sqref="A162:XFD162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="16.83984375" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" customWidth="1"/>
-    <col min="4" max="4" width="19.26171875" customWidth="1"/>
-    <col min="5" max="5" width="14.41796875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="73.2" thickBot="1">
+    <row r="1" spans="1:58" ht="84.75" thickBot="1">
       <c r="D1" s="1" t="s">
         <v>460</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="34.5" thickBot="1">
+    <row r="2" spans="1:58" ht="36.75" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15118,16 +15119,16 @@
       <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" customWidth="1"/>
-    <col min="2" max="2" width="19.41796875" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" customWidth="1"/>
-    <col min="4" max="4" width="19.26171875" customWidth="1"/>
-    <col min="5" max="5" width="14.41796875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="73.2" thickBot="1">
+    <row r="1" spans="1:58" ht="84.75" thickBot="1">
       <c r="D1" s="1" t="s">
         <v>460</v>
       </c>
@@ -15165,7 +15166,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="34.5" thickBot="1">
+    <row r="2" spans="1:58" ht="36.75" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43634,24 +43635,24 @@
   <dimension ref="A1:BJ169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" customWidth="1"/>
-    <col min="2" max="4" width="19.41796875" customWidth="1"/>
-    <col min="5" max="5" width="13.41796875" customWidth="1"/>
-    <col min="6" max="6" width="44.15625" customWidth="1"/>
-    <col min="7" max="7" width="99.83984375" customWidth="1"/>
-    <col min="8" max="8" width="19.26171875" customWidth="1"/>
-    <col min="9" max="9" width="14.41796875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="99.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="73.2" thickBot="1">
+    <row r="1" spans="1:62" ht="84.75" thickBot="1">
       <c r="H1" s="1" t="s">
         <v>460</v>
       </c>
@@ -43689,7 +43690,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="34.5" thickBot="1">
+    <row r="2" spans="1:62" ht="36.75" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62931,7 +62932,7 @@
       <c r="E111" t="s">
         <v>292</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="G111" s="14" t="s">
         <v>754</v>
       </c>
       <c r="H111">
